--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H2">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N2">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q2">
-        <v>42.54086391448522</v>
+        <v>14.522821834608</v>
       </c>
       <c r="R2">
-        <v>42.54086391448522</v>
+        <v>130.705396511472</v>
       </c>
       <c r="S2">
-        <v>0.02093786578352962</v>
+        <v>0.004865693661334911</v>
       </c>
       <c r="T2">
-        <v>0.02093786578352962</v>
+        <v>0.004865693661334913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H3">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I3">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J3">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N3">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q3">
-        <v>6.079311300312501</v>
+        <v>54.705707758272</v>
       </c>
       <c r="R3">
-        <v>6.079311300312501</v>
+        <v>492.3513698244481</v>
       </c>
       <c r="S3">
-        <v>0.00299213020962878</v>
+        <v>0.01832847765466297</v>
       </c>
       <c r="T3">
-        <v>0.00299213020962878</v>
+        <v>0.01832847765466297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H4">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I4">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J4">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N4">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q4">
-        <v>128.6540306081855</v>
+        <v>22.142653314924</v>
       </c>
       <c r="R4">
-        <v>128.6540306081855</v>
+        <v>199.283879834316</v>
       </c>
       <c r="S4">
-        <v>0.06332125343761712</v>
+        <v>0.007418624913707776</v>
       </c>
       <c r="T4">
-        <v>0.06332125343761712</v>
+        <v>0.007418624913707778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H5">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I5">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J5">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N5">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q5">
-        <v>37.81148645346497</v>
+        <v>18.1466085339</v>
       </c>
       <c r="R5">
-        <v>37.81148645346497</v>
+        <v>163.3194768051</v>
       </c>
       <c r="S5">
-        <v>0.01861014929151041</v>
+        <v>0.006079799031047366</v>
       </c>
       <c r="T5">
-        <v>0.01861014929151041</v>
+        <v>0.006079799031047367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>156.343810879635</v>
+        <v>86.484492</v>
       </c>
       <c r="H6">
-        <v>156.343810879635</v>
+        <v>259.453476</v>
       </c>
       <c r="I6">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J6">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N6">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O6">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P6">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q6">
-        <v>92.85832251515389</v>
+        <v>161.10230271186</v>
       </c>
       <c r="R6">
-        <v>92.85832251515389</v>
+        <v>1449.92072440674</v>
       </c>
       <c r="S6">
-        <v>0.04570323483825578</v>
+        <v>0.05397535424304223</v>
       </c>
       <c r="T6">
-        <v>0.04570323483825578</v>
+        <v>0.05397535424304225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>156.343810879635</v>
+        <v>86.484492</v>
       </c>
       <c r="H7">
-        <v>156.343810879635</v>
+        <v>259.453476</v>
       </c>
       <c r="I7">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J7">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N7">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q7">
-        <v>13.26993853555051</v>
+        <v>67.802083209996</v>
       </c>
       <c r="R7">
-        <v>13.26993853555051</v>
+        <v>610.218748889964</v>
       </c>
       <c r="S7">
-        <v>0.006531230596810658</v>
+        <v>0.02271625791855516</v>
       </c>
       <c r="T7">
-        <v>0.006531230596810658</v>
+        <v>0.02271625791855517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>156.343810879635</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H8">
-        <v>156.343810879635</v>
+        <v>473.562271</v>
       </c>
       <c r="I8">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J8">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N8">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q8">
-        <v>280.826395324368</v>
+        <v>26.50749026513467</v>
       </c>
       <c r="R8">
-        <v>280.826395324368</v>
+        <v>238.567412386212</v>
       </c>
       <c r="S8">
-        <v>0.1382178177103717</v>
+        <v>0.008881010097748951</v>
       </c>
       <c r="T8">
-        <v>0.1382178177103717</v>
+        <v>0.008881010097748955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>156.343810879635</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H9">
-        <v>156.343810879635</v>
+        <v>473.562271</v>
       </c>
       <c r="I9">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J9">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N9">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q9">
-        <v>82.53502352305742</v>
+        <v>99.85049960428978</v>
       </c>
       <c r="R9">
-        <v>82.53502352305742</v>
+        <v>898.654496438608</v>
       </c>
       <c r="S9">
-        <v>0.04062228845281663</v>
+        <v>0.03345368748158513</v>
       </c>
       <c r="T9">
-        <v>0.04062228845281663</v>
+        <v>0.03345368748158514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.826997092114</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H10">
-        <v>105.826997092114</v>
+        <v>473.562271</v>
       </c>
       <c r="I10">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J10">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5939366706792319</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N10">
-        <v>0.5939366706792319</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O10">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P10">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q10">
-        <v>62.85453432087095</v>
+        <v>40.41543536607345</v>
       </c>
       <c r="R10">
-        <v>62.85453432087095</v>
+        <v>363.7389182946611</v>
       </c>
       <c r="S10">
-        <v>0.03093589745008772</v>
+        <v>0.01354069683704154</v>
       </c>
       <c r="T10">
-        <v>0.03093589745008772</v>
+        <v>0.01354069683704154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.826997092114</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H11">
-        <v>105.826997092114</v>
+        <v>473.562271</v>
       </c>
       <c r="I11">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J11">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08487664756852251</v>
+        <v>0.209825</v>
       </c>
       <c r="N11">
-        <v>0.08487664756852251</v>
+        <v>0.629475</v>
       </c>
       <c r="O11">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P11">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q11">
-        <v>8.982240735422415</v>
+        <v>33.12173450419167</v>
       </c>
       <c r="R11">
-        <v>8.982240735422415</v>
+        <v>298.095610537725</v>
       </c>
       <c r="S11">
-        <v>0.004420901073651897</v>
+        <v>0.01109703165575007</v>
       </c>
       <c r="T11">
-        <v>0.004420901073651897</v>
+        <v>0.01109703165575007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.826997092114</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H12">
-        <v>105.826997092114</v>
+        <v>473.562271</v>
       </c>
       <c r="I12">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J12">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.79621050391671</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N12">
-        <v>1.79621050391671</v>
+        <v>5.588365</v>
       </c>
       <c r="O12">
-        <v>0.5981524351830307</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P12">
-        <v>0.5981524351830307</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q12">
-        <v>190.0875637748183</v>
+        <v>294.0487578418795</v>
       </c>
       <c r="R12">
-        <v>190.0875637748183</v>
+        <v>2646.438820576915</v>
       </c>
       <c r="S12">
-        <v>0.0935577590863186</v>
+        <v>0.09851743644924058</v>
       </c>
       <c r="T12">
-        <v>0.0935577590863186</v>
+        <v>0.0985174364492406</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.826997092114</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H13">
-        <v>105.826997092114</v>
+        <v>473.562271</v>
       </c>
       <c r="I13">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J13">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.527907200538939</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N13">
-        <v>0.527907200538939</v>
+        <v>2.351939</v>
       </c>
       <c r="O13">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P13">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q13">
-        <v>55.86683377634034</v>
+        <v>123.7543971214966</v>
       </c>
       <c r="R13">
-        <v>55.86683377634034</v>
+        <v>1113.789574093469</v>
       </c>
       <c r="S13">
-        <v>0.02749667401468728</v>
+        <v>0.04146239570339275</v>
       </c>
       <c r="T13">
-        <v>0.02749667401468728</v>
+        <v>0.04146239570339276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>103.868583664288</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H14">
-        <v>103.868583664288</v>
+        <v>321.360122</v>
       </c>
       <c r="I14">
-        <v>0.1535167163810589</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J14">
-        <v>0.1535167163810589</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N14">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O14">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P14">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q14">
-        <v>61.69136076973447</v>
+        <v>17.98802570890933</v>
       </c>
       <c r="R14">
-        <v>61.69136076973447</v>
+        <v>161.892231380184</v>
       </c>
       <c r="S14">
-        <v>0.0303634038649644</v>
+        <v>0.006026667796970327</v>
       </c>
       <c r="T14">
-        <v>0.0303634038649644</v>
+        <v>0.006026667796970329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>103.868583664288</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H15">
-        <v>103.868583664288</v>
+        <v>321.360122</v>
       </c>
       <c r="I15">
-        <v>0.1535167163810589</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J15">
-        <v>0.1535167163810589</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N15">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P15">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q15">
-        <v>8.816017169115366</v>
+        <v>67.75871031033955</v>
       </c>
       <c r="R15">
-        <v>8.816017169115366</v>
+        <v>609.828392793056</v>
       </c>
       <c r="S15">
-        <v>0.004339088754833153</v>
+        <v>0.02270172635951412</v>
       </c>
       <c r="T15">
-        <v>0.004339088754833153</v>
+        <v>0.02270172635951413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>103.868583664288</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H16">
-        <v>103.868583664288</v>
+        <v>321.360122</v>
       </c>
       <c r="I16">
-        <v>0.1535167163810589</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J16">
-        <v>0.1535167163810589</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N16">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O16">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P16">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q16">
-        <v>186.5698410047457</v>
+        <v>27.42597971856689</v>
       </c>
       <c r="R16">
-        <v>186.5698410047457</v>
+        <v>246.833817467102</v>
       </c>
       <c r="S16">
-        <v>0.09182639774463304</v>
+        <v>0.009188738744596239</v>
       </c>
       <c r="T16">
-        <v>0.09182639774463304</v>
+        <v>0.009188738744596241</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>103.868583664288</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H17">
-        <v>103.868583664288</v>
+        <v>321.360122</v>
       </c>
       <c r="I17">
-        <v>0.1535167163810589</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J17">
-        <v>0.1535167163810589</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N17">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O17">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P17">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q17">
-        <v>54.83297322615885</v>
+        <v>22.47646253288334</v>
       </c>
       <c r="R17">
-        <v>54.83297322615885</v>
+        <v>202.28816279595</v>
       </c>
       <c r="S17">
-        <v>0.02698782601662827</v>
+        <v>0.007530463605555484</v>
       </c>
       <c r="T17">
-        <v>0.02698782601662827</v>
+        <v>0.007530463605555486</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.2138542608639</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H18">
-        <v>36.2138542608639</v>
+        <v>321.360122</v>
       </c>
       <c r="I18">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J18">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N18">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O18">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P18">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q18">
-        <v>21.50873603216042</v>
+        <v>199.5419620200589</v>
       </c>
       <c r="R18">
-        <v>21.50873603216042</v>
+        <v>1795.87765818053</v>
       </c>
       <c r="S18">
-        <v>0.01058622197048045</v>
+        <v>0.06685409150015499</v>
       </c>
       <c r="T18">
-        <v>0.01058622197048045</v>
+        <v>0.06685409150015502</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.2138542608639</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H19">
-        <v>36.2138542608639</v>
+        <v>321.360122</v>
       </c>
       <c r="I19">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J19">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N19">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O19">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P19">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q19">
-        <v>3.073710545197182</v>
+        <v>83.97993377517311</v>
       </c>
       <c r="R19">
-        <v>3.073710545197182</v>
+        <v>755.8194039765579</v>
       </c>
       <c r="S19">
-        <v>0.001512826325815274</v>
+        <v>0.02813644869452569</v>
       </c>
       <c r="T19">
-        <v>0.001512826325815274</v>
+        <v>0.0281364486945257</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.2138542608639</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H20">
-        <v>36.2138542608639</v>
+        <v>312.609107</v>
       </c>
       <c r="I20">
-        <v>0.05352371041852844</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J20">
-        <v>0.05352371041852844</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N20">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O20">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P20">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q20">
-        <v>65.04770541067263</v>
+        <v>17.49819056128933</v>
       </c>
       <c r="R20">
-        <v>65.04770541067263</v>
+        <v>157.483715051604</v>
       </c>
       <c r="S20">
-        <v>0.03201533772687414</v>
+        <v>0.005862554527523335</v>
       </c>
       <c r="T20">
-        <v>0.03201533772687414</v>
+        <v>0.005862554527523337</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.2138542608639</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H21">
-        <v>36.2138542608639</v>
+        <v>312.609107</v>
       </c>
       <c r="I21">
-        <v>0.05352371041852844</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J21">
-        <v>0.05352371041852844</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N21">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P21">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q21">
-        <v>19.11755442357779</v>
+        <v>65.91356074225955</v>
       </c>
       <c r="R21">
-        <v>19.11755442357779</v>
+        <v>593.222046680336</v>
       </c>
       <c r="S21">
-        <v>0.009409324395358567</v>
+        <v>0.02208353158580787</v>
       </c>
       <c r="T21">
-        <v>0.009409324395358567</v>
+        <v>0.02208353158580788</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>202.716117073023</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H22">
-        <v>202.716117073023</v>
+        <v>312.609107</v>
       </c>
       <c r="I22">
-        <v>0.2996123712551263</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J22">
-        <v>0.2996123712551263</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.5939366706792319</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N22">
-        <v>0.5939366706792319</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O22">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P22">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q22">
-        <v>120.4005356673727</v>
+        <v>26.67913795608189</v>
       </c>
       <c r="R22">
-        <v>120.4005356673727</v>
+        <v>240.112241604737</v>
       </c>
       <c r="S22">
-        <v>0.05925902824014208</v>
+        <v>0.00893851855521928</v>
       </c>
       <c r="T22">
-        <v>0.05925902824014208</v>
+        <v>0.008938518555219281</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>202.716117073023</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H23">
-        <v>202.716117073023</v>
+        <v>312.609107</v>
       </c>
       <c r="I23">
-        <v>0.2996123712551263</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J23">
-        <v>0.2996123712551263</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.08487664756852251</v>
+        <v>0.209825</v>
       </c>
       <c r="N23">
-        <v>0.08487664756852251</v>
+        <v>0.629475</v>
       </c>
       <c r="O23">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P23">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q23">
-        <v>17.20586442526632</v>
+        <v>21.86440195875834</v>
       </c>
       <c r="R23">
-        <v>17.20586442526632</v>
+        <v>196.779617628825</v>
       </c>
       <c r="S23">
-        <v>0.008468424166232466</v>
+        <v>0.00732540020329187</v>
       </c>
       <c r="T23">
-        <v>0.008468424166232466</v>
+        <v>0.007325400203291872</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>202.716117073023</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H24">
-        <v>202.716117073023</v>
+        <v>312.609107</v>
       </c>
       <c r="I24">
-        <v>0.2996123712551263</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J24">
-        <v>0.2996123712551263</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.79621050391671</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N24">
-        <v>1.79621050391671</v>
+        <v>5.588365</v>
       </c>
       <c r="O24">
-        <v>0.5981524351830307</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P24">
-        <v>0.5981524351830307</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q24">
-        <v>364.1208187997735</v>
+        <v>194.1081991377839</v>
       </c>
       <c r="R24">
-        <v>364.1208187997735</v>
+        <v>1746.973792240055</v>
       </c>
       <c r="S24">
-        <v>0.1792138694772161</v>
+        <v>0.06503357576880602</v>
       </c>
       <c r="T24">
-        <v>0.1792138694772161</v>
+        <v>0.06503357576880603</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>202.716117073023</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H25">
-        <v>202.716117073023</v>
+        <v>312.609107</v>
       </c>
       <c r="I25">
-        <v>0.2996123712551263</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J25">
-        <v>0.2996123712551263</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.527907200538939</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N25">
-        <v>0.527907200538939</v>
+        <v>2.351939</v>
       </c>
       <c r="O25">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P25">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q25">
-        <v>107.0152978681434</v>
+        <v>81.69306116760811</v>
       </c>
       <c r="R25">
-        <v>107.0152978681434</v>
+        <v>735.237550508473</v>
       </c>
       <c r="S25">
-        <v>0.05267104937153565</v>
+        <v>0.02737026002419489</v>
       </c>
       <c r="T25">
-        <v>0.05267104937153565</v>
+        <v>0.02737026002419489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H26">
+        <v>109.785373</v>
+      </c>
+      <c r="I26">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J26">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.167924</v>
+      </c>
+      <c r="N26">
+        <v>0.503772</v>
+      </c>
+      <c r="O26">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P26">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q26">
+        <v>6.145199658550666</v>
+      </c>
+      <c r="R26">
+        <v>55.306796926956</v>
+      </c>
+      <c r="S26">
+        <v>0.002058873913538891</v>
+      </c>
+      <c r="T26">
+        <v>0.002058873913538892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H27">
+        <v>109.785373</v>
+      </c>
+      <c r="I27">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J27">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.897648</v>
+      </c>
+      <c r="O27">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P27">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q27">
+        <v>23.14822150030044</v>
+      </c>
+      <c r="R27">
+        <v>208.333993502704</v>
+      </c>
+      <c r="S27">
+        <v>0.007755528223639365</v>
+      </c>
+      <c r="T27">
+        <v>0.007755528223639368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H28">
+        <v>109.785373</v>
+      </c>
+      <c r="I28">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J28">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P28">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q28">
+        <v>9.369461881438111</v>
+      </c>
+      <c r="R28">
+        <v>84.325156932943</v>
+      </c>
+      <c r="S28">
+        <v>0.003139123498574754</v>
+      </c>
+      <c r="T28">
+        <v>0.003139123498574755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H29">
+        <v>109.785373</v>
+      </c>
+      <c r="I29">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J29">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.209825</v>
+      </c>
+      <c r="N29">
+        <v>0.629475</v>
+      </c>
+      <c r="O29">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P29">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q29">
+        <v>7.678571963241667</v>
+      </c>
+      <c r="R29">
+        <v>69.10714766917499</v>
+      </c>
+      <c r="S29">
+        <v>0.002572611532051987</v>
+      </c>
+      <c r="T29">
+        <v>0.002572611532051988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H30">
+        <v>109.785373</v>
+      </c>
+      <c r="I30">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J30">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.588365</v>
+      </c>
+      <c r="O30">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P30">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q30">
+        <v>68.1689706650161</v>
+      </c>
+      <c r="R30">
+        <v>613.5207359851449</v>
+      </c>
+      <c r="S30">
+        <v>0.02283917906877271</v>
+      </c>
+      <c r="T30">
+        <v>0.02283917906877272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H31">
+        <v>109.785373</v>
+      </c>
+      <c r="I31">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J31">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N31">
+        <v>2.351939</v>
+      </c>
+      <c r="O31">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P31">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q31">
+        <v>28.68983337647188</v>
+      </c>
+      <c r="R31">
+        <v>258.2085003882469</v>
+      </c>
+      <c r="S31">
+        <v>0.009612177440061669</v>
+      </c>
+      <c r="T31">
+        <v>0.009612177440061671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>270.499283</v>
+      </c>
+      <c r="H32">
+        <v>811.497849</v>
+      </c>
+      <c r="I32">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J32">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.167924</v>
+      </c>
+      <c r="N32">
+        <v>0.503772</v>
+      </c>
+      <c r="O32">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P32">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q32">
+        <v>45.423321598492</v>
+      </c>
+      <c r="R32">
+        <v>408.809894386428</v>
+      </c>
+      <c r="S32">
+        <v>0.01521852781061301</v>
+      </c>
+      <c r="T32">
+        <v>0.01521852781061301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>270.499283</v>
+      </c>
+      <c r="H33">
+        <v>811.497849</v>
+      </c>
+      <c r="I33">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J33">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.897648</v>
+      </c>
+      <c r="O33">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P33">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q33">
+        <v>171.1041411287947</v>
+      </c>
+      <c r="R33">
+        <v>1539.937270159152</v>
+      </c>
+      <c r="S33">
+        <v>0.0573263477580218</v>
+      </c>
+      <c r="T33">
+        <v>0.05732634775802181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>270.499283</v>
+      </c>
+      <c r="H34">
+        <v>811.497849</v>
+      </c>
+      <c r="I34">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J34">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P34">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q34">
+        <v>69.25602159291768</v>
+      </c>
+      <c r="R34">
+        <v>623.304194336259</v>
+      </c>
+      <c r="S34">
+        <v>0.02320338217404214</v>
+      </c>
+      <c r="T34">
+        <v>0.02320338217404215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>270.499283</v>
+      </c>
+      <c r="H35">
+        <v>811.497849</v>
+      </c>
+      <c r="I35">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J35">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.209825</v>
+      </c>
+      <c r="N35">
+        <v>0.629475</v>
+      </c>
+      <c r="O35">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P35">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q35">
+        <v>56.757512055475</v>
+      </c>
+      <c r="R35">
+        <v>510.817608499275</v>
+      </c>
+      <c r="S35">
+        <v>0.0190159095654098</v>
+      </c>
+      <c r="T35">
+        <v>0.0190159095654098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>270.499283</v>
+      </c>
+      <c r="H36">
+        <v>811.497849</v>
+      </c>
+      <c r="I36">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J36">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.588365</v>
+      </c>
+      <c r="O36">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P36">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q36">
+        <v>503.8829085474316</v>
+      </c>
+      <c r="R36">
+        <v>4534.946176926885</v>
+      </c>
+      <c r="S36">
+        <v>0.1688197997672685</v>
+      </c>
+      <c r="T36">
+        <v>0.1688197997672685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>270.499283</v>
+      </c>
+      <c r="H37">
+        <v>811.497849</v>
+      </c>
+      <c r="I37">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J37">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N37">
+        <v>2.351939</v>
+      </c>
+      <c r="O37">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P37">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q37">
+        <v>212.0659377199123</v>
+      </c>
+      <c r="R37">
+        <v>1908.593439479211</v>
+      </c>
+      <c r="S37">
+        <v>0.07105009623473585</v>
+      </c>
+      <c r="T37">
+        <v>0.07105009623473586</v>
       </c>
     </row>
   </sheetData>
